--- a/exported_data.xlsx
+++ b/exported_data.xlsx
@@ -19,13 +19,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -36,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -44,12 +47,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -415,14 +427,122 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>preparer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>additional_preparer</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>taxpayer_first_name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>taxpayer_last_name</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>total_prep_fee_charged</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>fees_intercepted</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>total_prep_fee_deposited</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>funding_date</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>partnership_remaining_balance</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>advance_loan_fees</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>sum_total_preparer</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>split</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>payout</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>prior_week_hold</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>current_week_hold</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>total_hold</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>release_hold_amt</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>dd_confirmed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -433,14 +553,152 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>preparer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>additional_preparer</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>missing_documents</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>taxpayer_name</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>identification_drivers_license</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>social_security_card</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>healthcare1095_form</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>spouse_name</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>identification_drivers_license1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>social_security_card1</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>healthcare1095_form1</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>a_of_dependents</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>dependent_ssc</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>healthcare_card</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>birth_certificate</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>application_w_signature</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>signed_documents</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>w2</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>self_employment_log</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>a1099</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>ssa</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>a1098t</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -451,14 +709,132 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>preparer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>additional_preparer</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>application_date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>decision_date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>loan_type</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_name</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>first_name</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ssn</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>disb_type</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>advance_amount</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>outstanding_loan_balance</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>marketing_fee</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>repayment_status</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>group_efin</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>parent_efin</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>office_efin</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>ptin</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>loan_disb_type</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>irs_ack_date</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>